--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam1-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam1-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H2">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I2">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J2">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N2">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O2">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P2">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q2">
-        <v>0.277261841865</v>
+        <v>21.61378177806667</v>
       </c>
       <c r="R2">
-        <v>2.495356576785</v>
+        <v>194.5240360026</v>
       </c>
       <c r="S2">
-        <v>1.915227291154163E-06</v>
+        <v>8.125363177218531E-05</v>
       </c>
       <c r="T2">
-        <v>1.915227291154163E-06</v>
+        <v>8.12536317721853E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H3">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I3">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J3">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N3">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q3">
-        <v>2144.7975645831</v>
+        <v>0.2876173922944444</v>
       </c>
       <c r="R3">
-        <v>19303.1780812479</v>
+        <v>2.58855653065</v>
       </c>
       <c r="S3">
-        <v>0.01481550725501791</v>
+        <v>1.081252597288848E-06</v>
       </c>
       <c r="T3">
-        <v>0.01481550725501791</v>
+        <v>1.081252597288848E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H4">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I4">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J4">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N4">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q4">
-        <v>2805.456513294225</v>
+        <v>3839.079934883067</v>
       </c>
       <c r="R4">
-        <v>25249.10861964802</v>
+        <v>34551.71941394761</v>
       </c>
       <c r="S4">
-        <v>0.01937910692025007</v>
+        <v>0.01443242050724899</v>
       </c>
       <c r="T4">
-        <v>0.01937910692025007</v>
+        <v>0.01443242050724899</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H5">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I5">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J5">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.47189100000001</v>
+        <v>196.552851</v>
       </c>
       <c r="N5">
-        <v>241.415673</v>
+        <v>589.658553</v>
       </c>
       <c r="O5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q5">
-        <v>1419.716082700035</v>
+        <v>3597.17596788715</v>
       </c>
       <c r="R5">
-        <v>12777.44474430032</v>
+        <v>32374.58371098435</v>
       </c>
       <c r="S5">
-        <v>0.00980689938791332</v>
+        <v>0.01352302038188716</v>
       </c>
       <c r="T5">
-        <v>0.009806899387913317</v>
+        <v>0.01352302038188716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.78801466666667</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H6">
-        <v>56.364044</v>
+        <v>54.90395</v>
       </c>
       <c r="I6">
-        <v>0.04686084480635803</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J6">
-        <v>0.04686084480635802</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01571566666666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N6">
-        <v>0.047147</v>
+        <v>414.554168</v>
       </c>
       <c r="O6">
-        <v>4.352450124452221E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P6">
-        <v>4.352450124452222E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q6">
-        <v>0.2952661758297778</v>
+        <v>2528.962368018178</v>
       </c>
       <c r="R6">
-        <v>2.657395582468</v>
+        <v>22760.6613121636</v>
       </c>
       <c r="S6">
-        <v>2.039594898093692E-06</v>
+        <v>0.009507238442889631</v>
       </c>
       <c r="T6">
-        <v>2.039594898093692E-06</v>
+        <v>0.009507238442889629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>56.364044</v>
       </c>
       <c r="I7">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J7">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>121.5707266666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N7">
-        <v>364.71218</v>
+        <v>3.542988</v>
       </c>
       <c r="O7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q7">
-        <v>2284.072595650658</v>
+        <v>22.18857016927466</v>
       </c>
       <c r="R7">
-        <v>20556.65336085592</v>
+        <v>199.697131523472</v>
       </c>
       <c r="S7">
-        <v>0.01577757018687569</v>
+        <v>8.341445882067228E-05</v>
       </c>
       <c r="T7">
-        <v>0.01577757018687569</v>
+        <v>8.341445882067228E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>56.364044</v>
       </c>
       <c r="I8">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J8">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>159.017985</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N8">
-        <v>477.053955</v>
+        <v>0.047147</v>
       </c>
       <c r="O8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q8">
-        <v>2987.63223444378</v>
+        <v>0.2952661758297778</v>
       </c>
       <c r="R8">
-        <v>26888.69010999402</v>
+        <v>2.657395582468</v>
       </c>
       <c r="S8">
-        <v>0.02063751273110522</v>
+        <v>1.110007002569085E-06</v>
       </c>
       <c r="T8">
-        <v>0.02063751273110522</v>
+        <v>1.110007002569085E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>56.364044</v>
       </c>
       <c r="I9">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J9">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.47189100000001</v>
+        <v>209.770696</v>
       </c>
       <c r="N9">
-        <v>241.415673</v>
+        <v>629.312088</v>
       </c>
       <c r="O9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q9">
-        <v>1511.907068362402</v>
+        <v>3941.174913084875</v>
       </c>
       <c r="R9">
-        <v>13607.16361526161</v>
+        <v>35470.57421776387</v>
       </c>
       <c r="S9">
-        <v>0.01044372229347902</v>
+        <v>0.01481623060812718</v>
       </c>
       <c r="T9">
-        <v>0.01044372229347901</v>
+        <v>0.01481623060812718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.82177033333333</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H10">
-        <v>134.465311</v>
+        <v>56.364044</v>
       </c>
       <c r="I10">
-        <v>0.1117939314398673</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J10">
-        <v>0.1117939314398673</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01571566666666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N10">
-        <v>0.047147</v>
+        <v>589.658553</v>
       </c>
       <c r="O10">
-        <v>4.352450124452221E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P10">
-        <v>4.352450124452222E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q10">
-        <v>0.7044040019685555</v>
+        <v>3692.837847363148</v>
       </c>
       <c r="R10">
-        <v>6.339636017717</v>
+        <v>33235.54062626833</v>
       </c>
       <c r="S10">
-        <v>4.865775108084536E-06</v>
+        <v>0.01388264625436939</v>
       </c>
       <c r="T10">
-        <v>4.865775108084537E-06</v>
+        <v>0.01388264625436939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.82177033333333</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H11">
-        <v>134.465311</v>
+        <v>56.364044</v>
       </c>
       <c r="I11">
-        <v>0.1117939314398673</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J11">
-        <v>0.1117939314398673</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>121.5707266666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N11">
-        <v>364.71218</v>
+        <v>414.554168</v>
       </c>
       <c r="O11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q11">
-        <v>5449.015189909775</v>
+        <v>2596.216596170599</v>
       </c>
       <c r="R11">
-        <v>49041.13670918797</v>
+        <v>23365.94936553539</v>
       </c>
       <c r="S11">
-        <v>0.03763988052387739</v>
+        <v>0.009760070193738748</v>
       </c>
       <c r="T11">
-        <v>0.03763988052387739</v>
+        <v>0.009760070193738748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H12">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I12">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J12">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>159.017985</v>
+        <v>1.180996</v>
       </c>
       <c r="N12">
-        <v>477.053955</v>
+        <v>3.542988</v>
       </c>
       <c r="O12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q12">
-        <v>7127.467602539445</v>
+        <v>47.94006709401733</v>
       </c>
       <c r="R12">
-        <v>64147.208422855</v>
+        <v>431.4606038461559</v>
       </c>
       <c r="S12">
-        <v>0.04923403948188179</v>
+        <v>0.0001802231834663953</v>
       </c>
       <c r="T12">
-        <v>0.04923403948188179</v>
+        <v>0.0001802231834663953</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H13">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I13">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J13">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>80.47189100000001</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N13">
-        <v>241.415673</v>
+        <v>0.047147</v>
       </c>
       <c r="O13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q13">
-        <v>3606.892616691034</v>
+        <v>0.6379446792598888</v>
       </c>
       <c r="R13">
-        <v>32462.0335502193</v>
+        <v>5.741502113339</v>
       </c>
       <c r="S13">
-        <v>0.02491514565900007</v>
+        <v>2.398253234526942E-06</v>
       </c>
       <c r="T13">
-        <v>0.02491514565900007</v>
+        <v>2.398253234526942E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.760055666666667</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H14">
-        <v>5.280167</v>
+        <v>121.778737</v>
       </c>
       <c r="I14">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J14">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.01571566666666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N14">
-        <v>0.047147</v>
+        <v>629.312088</v>
       </c>
       <c r="O14">
-        <v>4.352450124452221E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P14">
-        <v>4.352450124452222E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q14">
-        <v>0.02766044817211111</v>
+        <v>8515.203472830317</v>
       </c>
       <c r="R14">
-        <v>0.248944033549</v>
+        <v>76636.83125547285</v>
       </c>
       <c r="S14">
-        <v>1.91068647847246E-07</v>
+        <v>0.03201157551006222</v>
       </c>
       <c r="T14">
-        <v>1.91068647847246E-07</v>
+        <v>0.03201157551006222</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.760055666666667</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H15">
-        <v>5.280167</v>
+        <v>121.778737</v>
       </c>
       <c r="I15">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J15">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>121.5707266666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N15">
-        <v>364.71218</v>
+        <v>589.658553</v>
       </c>
       <c r="O15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q15">
-        <v>213.9712463704511</v>
+        <v>7978.652649509729</v>
       </c>
       <c r="R15">
-        <v>1925.74121733406</v>
+        <v>71807.87384558756</v>
       </c>
       <c r="S15">
-        <v>0.001478038116656869</v>
+        <v>0.02999449661693695</v>
       </c>
       <c r="T15">
-        <v>0.001478038116656869</v>
+        <v>0.02999449661693695</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.760055666666667</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H16">
-        <v>5.280167</v>
+        <v>121.778737</v>
       </c>
       <c r="I16">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J16">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>159.017985</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N16">
-        <v>477.053955</v>
+        <v>414.554168</v>
       </c>
       <c r="O16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q16">
-        <v>279.8805056011651</v>
+        <v>5609.320333013979</v>
       </c>
       <c r="R16">
-        <v>2518.924550410486</v>
+        <v>50483.88299712582</v>
       </c>
       <c r="S16">
-        <v>0.00193331609926466</v>
+        <v>0.02108736238345229</v>
       </c>
       <c r="T16">
-        <v>0.00193331609926466</v>
+        <v>0.02108736238345229</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H17">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I17">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J17">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>80.47189100000001</v>
+        <v>1.180996</v>
       </c>
       <c r="N17">
-        <v>241.415673</v>
+        <v>3.542988</v>
       </c>
       <c r="O17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q17">
-        <v>141.6350077619324</v>
+        <v>0.759015500236</v>
       </c>
       <c r="R17">
-        <v>1274.715069857391</v>
+        <v>6.831139502124</v>
       </c>
       <c r="S17">
-        <v>0.000978364820863319</v>
+        <v>2.853400048118443E-06</v>
       </c>
       <c r="T17">
-        <v>0.0009783648208633187</v>
+        <v>2.853400048118443E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>266.7063343333334</v>
+        <v>0.642691</v>
       </c>
       <c r="H18">
-        <v>800.119003</v>
+        <v>1.928073</v>
       </c>
       <c r="I18">
-        <v>0.6652157965493199</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J18">
-        <v>0.6652157965493198</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>0.047147</v>
       </c>
       <c r="O18">
-        <v>4.352450124452221E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P18">
-        <v>4.352450124452222E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q18">
-        <v>4.191467848271222</v>
+        <v>0.01010031752566667</v>
       </c>
       <c r="R18">
-        <v>37.723210634441</v>
+        <v>0.090902857731</v>
       </c>
       <c r="S18">
-        <v>2.895318576478671E-05</v>
+        <v>3.797056384854825E-08</v>
       </c>
       <c r="T18">
-        <v>2.895318576478671E-05</v>
+        <v>3.797056384854825E-08</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>266.7063343333334</v>
+        <v>0.642691</v>
       </c>
       <c r="H19">
-        <v>800.119003</v>
+        <v>1.928073</v>
       </c>
       <c r="I19">
-        <v>0.6652157965493199</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J19">
-        <v>0.6652157965493198</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>121.5707266666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N19">
-        <v>364.71218</v>
+        <v>629.312088</v>
       </c>
       <c r="O19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q19">
-        <v>32423.68287150628</v>
+        <v>134.817738382936</v>
       </c>
       <c r="R19">
-        <v>291813.1458435566</v>
+        <v>1213.359645446424</v>
       </c>
       <c r="S19">
-        <v>0.2239713979303101</v>
+        <v>0.000506826199293003</v>
       </c>
       <c r="T19">
-        <v>0.22397139793031</v>
+        <v>0.000506826199293003</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>266.7063343333334</v>
+        <v>0.642691</v>
       </c>
       <c r="H20">
-        <v>800.119003</v>
+        <v>1.928073</v>
       </c>
       <c r="I20">
-        <v>0.6652157965493199</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J20">
-        <v>0.6652157965493198</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>159.017985</v>
+        <v>196.552851</v>
       </c>
       <c r="N20">
-        <v>477.053955</v>
+        <v>589.658553</v>
       </c>
       <c r="O20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q20">
-        <v>42411.10387242299</v>
+        <v>126.322748362041</v>
       </c>
       <c r="R20">
-        <v>381699.9348518069</v>
+        <v>1136.904735258369</v>
       </c>
       <c r="S20">
-        <v>0.2929609896481473</v>
+        <v>0.0004748906130937085</v>
       </c>
       <c r="T20">
-        <v>0.2929609896481473</v>
+        <v>0.0004748906130937085</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>266.7063343333334</v>
+        <v>0.642691</v>
       </c>
       <c r="H21">
-        <v>800.119003</v>
+        <v>1.928073</v>
       </c>
       <c r="I21">
-        <v>0.6652157965493199</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J21">
-        <v>0.6652157965493198</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>80.47189100000001</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N21">
-        <v>241.415673</v>
+        <v>414.554168</v>
       </c>
       <c r="O21">
-        <v>0.2228667096514236</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P21">
-        <v>0.2228667096514236</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q21">
-        <v>21462.36306548156</v>
+        <v>88.81007759536266</v>
       </c>
       <c r="R21">
-        <v>193161.267589334</v>
+        <v>799.290698358264</v>
       </c>
       <c r="S21">
-        <v>0.1482544557850978</v>
+        <v>0.0003338675950691624</v>
       </c>
       <c r="T21">
-        <v>0.1482544557850977</v>
+        <v>0.0003338675950691624</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>51.213492</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H22">
-        <v>153.640476</v>
+        <v>1172.513336</v>
       </c>
       <c r="I22">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J22">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N22">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O22">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P22">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q22">
-        <v>0.804854169108</v>
+        <v>461.5778532542187</v>
       </c>
       <c r="R22">
-        <v>7.243687521972</v>
+        <v>4154.200679287967</v>
       </c>
       <c r="S22">
-        <v>5.559649534555867E-06</v>
+        <v>0.001735229739414388</v>
       </c>
       <c r="T22">
-        <v>5.559649534555867E-06</v>
+        <v>0.001735229739414388</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>51.213492</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H23">
-        <v>153.640476</v>
+        <v>1172.513336</v>
       </c>
       <c r="I23">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J23">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N23">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O23">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P23">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q23">
-        <v>6226.061437577519</v>
+        <v>6.142276250265778</v>
       </c>
       <c r="R23">
-        <v>56034.55293819768</v>
+        <v>55.280486252392</v>
       </c>
       <c r="S23">
-        <v>0.04300744271711573</v>
+        <v>2.309092678952628E-05</v>
       </c>
       <c r="T23">
-        <v>0.04300744271711573</v>
+        <v>2.309092678952628E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>51.213492</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H24">
-        <v>153.640476</v>
+        <v>1172.513336</v>
       </c>
       <c r="I24">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J24">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,90 +1925,462 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N24">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O24">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P24">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q24">
-        <v>8143.866302653621</v>
+        <v>81986.31285400063</v>
       </c>
       <c r="R24">
-        <v>73294.79672388259</v>
+        <v>737876.8156860056</v>
       </c>
       <c r="S24">
-        <v>0.05625496423682918</v>
+        <v>0.3082147188956227</v>
       </c>
       <c r="T24">
-        <v>0.05625496423682918</v>
+        <v>0.3082147188956227</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>390.8377786666667</v>
+      </c>
+      <c r="H25">
+        <v>1172.513336</v>
+      </c>
+      <c r="I25">
+        <v>0.8018007787970267</v>
+      </c>
+      <c r="J25">
+        <v>0.8018007787970267</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>196.552851</v>
+      </c>
+      <c r="N25">
+        <v>589.658553</v>
+      </c>
+      <c r="O25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q25">
+        <v>76820.27967544031</v>
+      </c>
+      <c r="R25">
+        <v>691382.5170789628</v>
+      </c>
+      <c r="S25">
+        <v>0.2887938252304707</v>
+      </c>
+      <c r="T25">
+        <v>0.2887938252304707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>390.8377786666667</v>
+      </c>
+      <c r="H26">
+        <v>1172.513336</v>
+      </c>
+      <c r="I26">
+        <v>0.8018007787970267</v>
+      </c>
+      <c r="J26">
+        <v>0.8018007787970267</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N26">
+        <v>414.554168</v>
+      </c>
+      <c r="O26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q26">
+        <v>54007.81005270938</v>
+      </c>
+      <c r="R26">
+        <v>486070.2904743844</v>
+      </c>
+      <c r="S26">
+        <v>0.2030339140047294</v>
+      </c>
+      <c r="T26">
+        <v>0.2030339140047294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>51.213492</v>
-      </c>
-      <c r="H25">
-        <v>153.640476</v>
-      </c>
-      <c r="I25">
-        <v>0.1277360883085496</v>
-      </c>
-      <c r="J25">
-        <v>0.1277360883085496</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>80.47189100000001</v>
-      </c>
-      <c r="N25">
-        <v>241.415673</v>
-      </c>
-      <c r="O25">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="P25">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="Q25">
-        <v>4121.246545953373</v>
-      </c>
-      <c r="R25">
-        <v>37091.21891358036</v>
-      </c>
-      <c r="S25">
-        <v>0.02846812170507013</v>
-      </c>
-      <c r="T25">
-        <v>0.02846812170507013</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>18.287273</v>
+      </c>
+      <c r="H27">
+        <v>54.861819</v>
+      </c>
+      <c r="I27">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J27">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>1.180996</v>
+      </c>
+      <c r="N27">
+        <v>3.542988</v>
+      </c>
+      <c r="O27">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="P27">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="Q27">
+        <v>21.597196263908</v>
+      </c>
+      <c r="R27">
+        <v>194.374766375172</v>
+      </c>
+      <c r="S27">
+        <v>8.119128112600785E-05</v>
+      </c>
+      <c r="T27">
+        <v>8.119128112600785E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>18.287273</v>
+      </c>
+      <c r="H28">
+        <v>54.861819</v>
+      </c>
+      <c r="I28">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J28">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.047147</v>
+      </c>
+      <c r="O28">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="P28">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="Q28">
+        <v>0.2873966867103333</v>
+      </c>
+      <c r="R28">
+        <v>2.586570180393</v>
+      </c>
+      <c r="S28">
+        <v>1.080422889168096E-06</v>
+      </c>
+      <c r="T28">
+        <v>1.080422889168096E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>18.287273</v>
+      </c>
+      <c r="H29">
+        <v>54.861819</v>
+      </c>
+      <c r="I29">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J29">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>209.770696</v>
+      </c>
+      <c r="N29">
+        <v>629.312088</v>
+      </c>
+      <c r="O29">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="P29">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="Q29">
+        <v>3836.133985152008</v>
+      </c>
+      <c r="R29">
+        <v>34525.20586636807</v>
+      </c>
+      <c r="S29">
+        <v>0.01442134567003981</v>
+      </c>
+      <c r="T29">
+        <v>0.01442134567003981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>18.287273</v>
+      </c>
+      <c r="H30">
+        <v>54.861819</v>
+      </c>
+      <c r="I30">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J30">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>196.552851</v>
+      </c>
+      <c r="N30">
+        <v>589.658553</v>
+      </c>
+      <c r="O30">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P30">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q30">
+        <v>3594.415645165323</v>
+      </c>
+      <c r="R30">
+        <v>32349.74080648791</v>
+      </c>
+      <c r="S30">
+        <v>0.01351264338038345</v>
+      </c>
+      <c r="T30">
+        <v>0.01351264338038345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>18.287273</v>
+      </c>
+      <c r="H31">
+        <v>54.861819</v>
+      </c>
+      <c r="I31">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J31">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N31">
+        <v>414.554168</v>
+      </c>
+      <c r="O31">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P31">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q31">
+        <v>2527.021747834621</v>
+      </c>
+      <c r="R31">
+        <v>22743.19573051159</v>
+      </c>
+      <c r="S31">
+        <v>0.009499942984860883</v>
+      </c>
+      <c r="T31">
+        <v>0.009499942984860883</v>
       </c>
     </row>
   </sheetData>
